--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>TEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42185</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41820</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41455</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1614200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1210100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>881000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>626700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>457100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>319500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>215100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>148500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>268800</v>
+      </c>
+      <c r="E9" s="3">
         <v>210300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>172700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>119200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>75800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>33000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1345400</v>
+      </c>
+      <c r="E10" s="3">
         <v>999800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>708300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>507500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>381300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>266600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>177100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>763000</v>
+      </c>
+      <c r="E12" s="3">
         <v>579100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>415800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>310200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>208300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>140900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>78600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>57300</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E15" s="3">
         <v>28700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>36100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>15300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1273500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>927000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>682500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>462900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>319100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>193600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>135400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-63400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-46000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-55800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,68 +1050,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-360300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-542200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-248800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-535300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>21300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>17000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1107,69 +1146,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-346200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-605600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-58100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-52400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>22200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>11400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>32100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-15000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-350700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-637600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-66100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>10800</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-350700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-637600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-66100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>10800</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,21 +1344,24 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>-47300</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>360300</v>
+      </c>
+      <c r="E32" s="3">
         <v>542200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-350700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-637600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-113400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>10800</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-350700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-637600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-113400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>10800</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42185</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41820</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41455</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,98 +1646,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1480000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1268400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2820700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>244400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>259700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>187100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>116800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>676100</v>
+      </c>
+      <c r="E42" s="3">
         <v>445000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>323100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>305500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>483400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>30300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>45200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E43" s="3">
         <v>87700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>110500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>39300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>21200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,81 +1775,90 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>376500</v>
+      </c>
+      <c r="E45" s="3">
         <v>240900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>54000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2643800</v>
+      </c>
+      <c r="E46" s="3">
         <v>2042100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1822000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>612500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>778500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>238600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>171200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E47" s="3">
         <v>5000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5200</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,69 +1874,78 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>315300</v>
+      </c>
+      <c r="E48" s="3">
         <v>81500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>103300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>41200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>58800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>774800</v>
+      </c>
+      <c r="E49" s="3">
         <v>759900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>439100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>432700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>28300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E52" s="3">
         <v>88800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>280800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>197500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>133000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>88300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>54100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3894100</v>
+      </c>
+      <c r="E54" s="3">
         <v>2977300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2421800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1283900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>991000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>397200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>262000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,49 +2138,53 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E57" s="3">
         <v>25000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>130200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>9600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4400</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>923900</v>
+      </c>
+      <c r="E58" s="3">
         <v>853600</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2065,84 +2198,93 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2064100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1451100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>433400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>314400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>226900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>177600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>122100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3018800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2329700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>444900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>326900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>236500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>188200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>126500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>229800</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>819600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E62" s="3">
         <v>82100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>470000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>62900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>22800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3318800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2411800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1514500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>389800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>259300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>207100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>136700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E72" s="3">
         <v>51000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>429100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>414100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>263600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>43200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>575300</v>
+      </c>
+      <c r="E76" s="3">
         <v>565500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>907300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>894000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>731700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>190100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>125300</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42185</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41820</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41455</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-350700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-637600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-113400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>10800</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>97400</v>
+      </c>
+      <c r="E83" s="3">
         <v>70200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>79400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12100</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>574200</v>
+      </c>
+      <c r="E89" s="3">
         <v>466300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>311500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>199400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>129500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>98200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>75300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>54300</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-44200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-318900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-604200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-51700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-224600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-489500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-28600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>906800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>9400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>432800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-141900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1165900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>72600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>70300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>43400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>TEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,166 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42185</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41820</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41455</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2089100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1614200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1210100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>881000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>626700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>457100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>319500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>215100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>148500</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>334300</v>
+      </c>
+      <c r="E9" s="3">
         <v>268800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>210300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>172700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>119200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>75800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>33000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1754800</v>
+      </c>
+      <c r="E10" s="3">
         <v>1345400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>999800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>708300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>507500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>381300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>266600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>177100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>959900</v>
+      </c>
+      <c r="E12" s="3">
         <v>763000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>579100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>415800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>310200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>208300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>140900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>57300</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,32 +907,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>7400</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -924,42 +943,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E15" s="3">
         <v>13000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>36100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>15300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1987500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1273500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>927000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>682500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>462900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>319100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>193600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>135400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E18" s="3">
         <v>14100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-63400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-46000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-55800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,97 +1083,104 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-729300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-360300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-542200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-12100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1700</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-534800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-248800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-535300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>21300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>17000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>35500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>7000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1149,75 +1188,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-634700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-346200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-605600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-58100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-52400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>22200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>32100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-15000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-696300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-350700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-637600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-66100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-37400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10800</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-696300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-350700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-637600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-66100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-37400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1359,12 +1419,12 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>-47300</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>729300</v>
+      </c>
+      <c r="E32" s="3">
         <v>360300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>542200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>12100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1700</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-696300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-350700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-637600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-113400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-37400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>10800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-696300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-350700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-637600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-113400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-37400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>10800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42185</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41820</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41455</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,107 +1732,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1480000</v>
+        <v>914000</v>
       </c>
       <c r="E41" s="3">
-        <v>1268400</v>
+        <v>1472900</v>
       </c>
       <c r="F41" s="3">
-        <v>2820700</v>
+        <v>1258500</v>
       </c>
       <c r="G41" s="3">
+        <v>2813600</v>
+      </c>
+      <c r="H41" s="3">
         <v>244400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>259700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>187100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>116800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E42" s="3">
         <v>676100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>445000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>323100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>305500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>483400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>30300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>45200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>111300</v>
+        <v>188600</v>
       </c>
       <c r="E43" s="3">
-        <v>87700</v>
+        <v>118400</v>
       </c>
       <c r="F43" s="3">
-        <v>110500</v>
+        <v>97600</v>
       </c>
       <c r="G43" s="3">
+        <v>117500</v>
+      </c>
+      <c r="H43" s="3">
         <v>39300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>21200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,90 +1873,99 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>211900</v>
+      </c>
+      <c r="E45" s="3">
         <v>376500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>240900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>54000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1627500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2643800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2042100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1822000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>612500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>778500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>238600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>171200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E47" s="3">
         <v>4900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>5000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5200</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,75 +1981,84 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>271500</v>
+      </c>
+      <c r="E48" s="3">
         <v>315300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>81500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>103300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>41200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>58800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>850300</v>
+      </c>
+      <c r="E49" s="3">
         <v>774800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>759900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>439100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>432700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2125,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E52" s="3">
         <v>155300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>88800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>280800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>197500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>133000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>88300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>54100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2945300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3894100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2977300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2421800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1283900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>991000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>397200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>262000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,55 +2268,59 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E57" s="3">
         <v>30700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>25000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>130200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>9600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4400</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>391200</v>
+      </c>
+      <c r="E58" s="3">
         <v>923900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>853600</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2201,93 +2334,102 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1878400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2064100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1451100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>433400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>314400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>226900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>177600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>122100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2310000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3018800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2329700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>444900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>326900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>236500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>188200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126500</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>214100</v>
+      </c>
+      <c r="E61" s="3">
         <v>229800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>819600</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2303,42 +2445,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E62" s="3">
         <v>70200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>82100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>470000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2650400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3318800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2411800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1514500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>389800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>259300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>207100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>136700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-296100</v>
+      </c>
+      <c r="E72" s="3">
         <v>14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>51000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>429100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>414100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>263600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>49900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E76" s="3">
         <v>575300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>565500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>907300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>894000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>731700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>190100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>125300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42185</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41820</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41455</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-696300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-350700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-637600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-113400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-37400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>10800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>92800</v>
+      </c>
+      <c r="E83" s="3">
         <v>97400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>79400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>61500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12100</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>841300</v>
+      </c>
+      <c r="E89" s="3">
         <v>574200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>466300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>311500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>199400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>129500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>98200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>75300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>54300</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-44200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-31800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>256600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-318900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-604200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-51700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-224600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-489500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-28600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3666,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1654800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-42600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>906800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>432800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-551400</v>
+      </c>
+      <c r="E102" s="3">
         <v>211500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-141900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1165900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>72600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>70300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>43400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -1748,7 +1748,7 @@
         <v>1258500</v>
       </c>
       <c r="G41" s="3">
-        <v>2813600</v>
+        <v>4224000</v>
       </c>
       <c r="H41" s="3">
         <v>244400</v>
@@ -1784,7 +1784,7 @@
         <v>445000</v>
       </c>
       <c r="G42" s="3">
-        <v>323100</v>
+        <v>646300</v>
       </c>
       <c r="H42" s="3">
         <v>305500</v>
@@ -1820,7 +1820,7 @@
         <v>97600</v>
       </c>
       <c r="G43" s="3">
-        <v>117500</v>
+        <v>181900</v>
       </c>
       <c r="H43" s="3">
         <v>39300</v>
@@ -1892,7 +1892,7 @@
         <v>240900</v>
       </c>
       <c r="G45" s="3">
-        <v>54000</v>
+        <v>76600</v>
       </c>
       <c r="H45" s="3">
         <v>23300</v>
@@ -1964,7 +1964,7 @@
         <v>5000</v>
       </c>
       <c r="G47" s="3">
-        <v>5200</v>
+        <v>10500</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2000,7 +2000,7 @@
         <v>81500</v>
       </c>
       <c r="G48" s="3">
-        <v>103300</v>
+        <v>155000</v>
       </c>
       <c r="H48" s="3">
         <v>41200</v>
@@ -2036,7 +2036,7 @@
         <v>759900</v>
       </c>
       <c r="G49" s="3">
-        <v>439100</v>
+        <v>814600</v>
       </c>
       <c r="H49" s="3">
         <v>432700</v>
@@ -2144,7 +2144,7 @@
         <v>88800</v>
       </c>
       <c r="G52" s="3">
-        <v>280800</v>
+        <v>452400</v>
       </c>
       <c r="H52" s="3">
         <v>197500</v>
@@ -2284,7 +2284,7 @@
         <v>25000</v>
       </c>
       <c r="G57" s="3">
-        <v>130200</v>
+        <v>147300</v>
       </c>
       <c r="H57" s="3">
         <v>12500</v>
@@ -2356,7 +2356,7 @@
         <v>1451100</v>
       </c>
       <c r="G59" s="3">
-        <v>433400</v>
+        <v>872000</v>
       </c>
       <c r="H59" s="3">
         <v>314400</v>
@@ -2464,7 +2464,7 @@
         <v>82100</v>
       </c>
       <c r="G62" s="3">
-        <v>470000</v>
+        <v>720100</v>
       </c>
       <c r="H62" s="3">
         <v>62900</v>
@@ -2804,7 +2804,7 @@
         <v>51000</v>
       </c>
       <c r="G72" s="3">
-        <v>429100</v>
+        <v>843600</v>
       </c>
       <c r="H72" s="3">
         <v>414100</v>

--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -1748,7 +1748,7 @@
         <v>1258500</v>
       </c>
       <c r="G41" s="3">
-        <v>4224000</v>
+        <v>2813600</v>
       </c>
       <c r="H41" s="3">
         <v>244400</v>
@@ -1784,7 +1784,7 @@
         <v>445000</v>
       </c>
       <c r="G42" s="3">
-        <v>646300</v>
+        <v>323100</v>
       </c>
       <c r="H42" s="3">
         <v>305500</v>
@@ -1820,7 +1820,7 @@
         <v>97600</v>
       </c>
       <c r="G43" s="3">
-        <v>181900</v>
+        <v>117500</v>
       </c>
       <c r="H43" s="3">
         <v>39300</v>
@@ -1892,7 +1892,7 @@
         <v>240900</v>
       </c>
       <c r="G45" s="3">
-        <v>76600</v>
+        <v>54000</v>
       </c>
       <c r="H45" s="3">
         <v>23300</v>
@@ -1964,7 +1964,7 @@
         <v>5000</v>
       </c>
       <c r="G47" s="3">
-        <v>10500</v>
+        <v>5200</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2000,7 +2000,7 @@
         <v>81500</v>
       </c>
       <c r="G48" s="3">
-        <v>155000</v>
+        <v>103300</v>
       </c>
       <c r="H48" s="3">
         <v>41200</v>
@@ -2036,7 +2036,7 @@
         <v>759900</v>
       </c>
       <c r="G49" s="3">
-        <v>814600</v>
+        <v>439100</v>
       </c>
       <c r="H49" s="3">
         <v>432700</v>
@@ -2144,7 +2144,7 @@
         <v>88800</v>
       </c>
       <c r="G52" s="3">
-        <v>452400</v>
+        <v>280800</v>
       </c>
       <c r="H52" s="3">
         <v>197500</v>
@@ -2284,7 +2284,7 @@
         <v>25000</v>
       </c>
       <c r="G57" s="3">
-        <v>147300</v>
+        <v>130200</v>
       </c>
       <c r="H57" s="3">
         <v>12500</v>
@@ -2356,7 +2356,7 @@
         <v>1451100</v>
       </c>
       <c r="G59" s="3">
-        <v>872000</v>
+        <v>433400</v>
       </c>
       <c r="H59" s="3">
         <v>314400</v>
@@ -2464,7 +2464,7 @@
         <v>82100</v>
       </c>
       <c r="G62" s="3">
-        <v>720100</v>
+        <v>470000</v>
       </c>
       <c r="H62" s="3">
         <v>62900</v>
@@ -2804,7 +2804,7 @@
         <v>51000</v>
       </c>
       <c r="G72" s="3">
-        <v>843600</v>
+        <v>429100</v>
       </c>
       <c r="H72" s="3">
         <v>414100</v>

--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>TEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41820</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41455</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2802900</v>
+      </c>
+      <c r="E8" s="3">
         <v>2089100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1614200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1210100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>881000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>626700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>457100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>319500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>215100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>148500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>465700</v>
+      </c>
+      <c r="E9" s="3">
         <v>334300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>268800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>210300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>172700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>119200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>75800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>33000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2337200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1754800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1345400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>999800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>708300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>507500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>381300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>266600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>177100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>115500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1397200</v>
+      </c>
+      <c r="E12" s="3">
         <v>959900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>763000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>579100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>415800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>310200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>208300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>140900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>57300</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,18 +926,21 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>7400</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -937,8 +956,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -946,45 +965,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E15" s="3">
         <v>9400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>13000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>28700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>36100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>15300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2909300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1987500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1273500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>927000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>682500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>462900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>319100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>193600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>135400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="E18" s="3">
         <v>101600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>14100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-55800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,89 +1116,96 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-450900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-729300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-360300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-542200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-463400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-534800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-248800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-535300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>21300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>17000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E22" s="3">
         <v>7000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1221,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1191,81 +1230,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-564600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-634700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-346200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-605600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-58100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-52400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>22200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E24" s="3">
         <v>61700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>32100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-15000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-614100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-696300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-350700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-637600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-66100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-37400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10800</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-614100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-696300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-350700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-637600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-66100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-37400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,12 +1482,12 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>-47300</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>450900</v>
+      </c>
+      <c r="E32" s="3">
         <v>729300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>360300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>542200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-614100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-696300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-350700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-637600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-113400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-37400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>10800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-614100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-696300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-350700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-637600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-113400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-37400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>10800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41820</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41455</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,116 +1818,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1376200</v>
+      </c>
+      <c r="E41" s="3">
         <v>914000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1472900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1258500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2813600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>244400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>259700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>187100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>116800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E42" s="3">
         <v>313000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>676100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>445000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>323100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>305500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>483400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>45200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>322100</v>
+      </c>
+      <c r="E43" s="3">
         <v>188600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>97600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>117500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>21200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>14300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1876,99 +1971,108 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>127700</v>
+      </c>
+      <c r="E45" s="3">
         <v>211900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>376500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>240900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>54000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1899300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1627500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2643800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2042100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1822000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>612500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>778500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>238600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>171200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E47" s="3">
         <v>110400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>5000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5200</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,81 +2088,90 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>365900</v>
+      </c>
+      <c r="E48" s="3">
         <v>271500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>315300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>81500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>103300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>41200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>58800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>833500</v>
+      </c>
+      <c r="E49" s="3">
         <v>850300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>774800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>759900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>439100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>432700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E52" s="3">
         <v>85600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>155300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>280800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>197500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>133000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>88300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3361200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2945300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3894100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2977300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2421800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1283900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>991000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>397200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>262000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,61 +2398,65 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>86400</v>
+      </c>
+      <c r="E57" s="3">
         <v>40400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>30700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>25000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>130200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>9600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>10600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4400</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>40600</v>
+      </c>
+      <c r="E58" s="3">
         <v>391200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>923900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>853600</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2337,102 +2470,111 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1878400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2064100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1451100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>433400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>314400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>226900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>177600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1594100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2310000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3018800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2329700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>444900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>326900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>236500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>188200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1273900</v>
+      </c>
+      <c r="E61" s="3">
         <v>214100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>229800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>819600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2448,45 +2590,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>157700</v>
+      </c>
+      <c r="E62" s="3">
         <v>126300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>70200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>82100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>470000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>22800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3025600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2650400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3318800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2411800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1514500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>389800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>259300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>207100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>136700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-204800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-296100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>51000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>429100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>414100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>263600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>49900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>335600</v>
+      </c>
+      <c r="E76" s="3">
         <v>294900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>575300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>565500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>907300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>894000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>731700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>190100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>125300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41820</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41455</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-614100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-696300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-350700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-637600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-113400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-37400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>10800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E83" s="3">
         <v>92800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>97400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>79400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>61500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12100</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>890100</v>
+      </c>
+      <c r="E89" s="3">
         <v>841300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>574200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>466300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>311500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>199400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>129500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>98200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>75300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>54300</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-44200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-31800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E94" s="3">
         <v>256600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-318900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-604200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-51700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-224600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-489500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-28600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-46600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12400</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-461700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1654800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-42600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>906800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>432800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E101" s="3">
         <v>5400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>466000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-551400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>211500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-141900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1165900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>72600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>70300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -1825,7 +1825,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1376200</v>
+        <v>2761500</v>
       </c>
       <c r="E41" s="3">
         <v>914000</v>
@@ -1864,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>73300</v>
+        <v>146600</v>
       </c>
       <c r="E42" s="3">
         <v>313000</v>
@@ -1903,7 +1903,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>322100</v>
+        <v>630200</v>
       </c>
       <c r="E43" s="3">
         <v>188600</v>
@@ -1981,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>127700</v>
+        <v>257900</v>
       </c>
       <c r="E45" s="3">
         <v>211900</v>
@@ -2020,7 +2020,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1899300</v>
+        <v>1897000</v>
       </c>
       <c r="E46" s="3">
         <v>1627500</v>
@@ -2059,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>189900</v>
+        <v>348900</v>
       </c>
       <c r="E47" s="3">
         <v>110400</v>
@@ -2098,7 +2098,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>365900</v>
+        <v>743800</v>
       </c>
       <c r="E48" s="3">
         <v>271500</v>
@@ -2137,7 +2137,7 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>833500</v>
+        <v>1657200</v>
       </c>
       <c r="E49" s="3">
         <v>850300</v>
@@ -2254,7 +2254,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>72700</v>
+        <v>141900</v>
       </c>
       <c r="E52" s="3">
         <v>85600</v>
@@ -2332,7 +2332,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3361200</v>
+        <v>3326800</v>
       </c>
       <c r="E54" s="3">
         <v>2945300</v>
@@ -2405,7 +2405,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>86400</v>
+        <v>167600</v>
       </c>
       <c r="E57" s="3">
         <v>40400</v>
@@ -2483,7 +2483,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1467000</v>
+        <v>2979800</v>
       </c>
       <c r="E59" s="3">
         <v>1878400</v>
@@ -2561,7 +2561,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1273900</v>
+        <v>999400</v>
       </c>
       <c r="E61" s="3">
         <v>214100</v>
@@ -2600,7 +2600,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>157700</v>
+        <v>563700</v>
       </c>
       <c r="E62" s="3">
         <v>126300</v>
@@ -2756,7 +2756,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3025600</v>
+        <v>2999500</v>
       </c>
       <c r="E66" s="3">
         <v>2650400</v>
@@ -2968,7 +2968,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-204800</v>
+        <v>-2073800</v>
       </c>
       <c r="E72" s="3">
         <v>-296100</v>
@@ -3124,7 +3124,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>335600</v>
+        <v>327400</v>
       </c>
       <c r="E76" s="3">
         <v>294900</v>

--- a/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TEAM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>TEAM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41820</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41455</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>3534600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2802900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2089100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1614200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1210100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>881000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>626700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>457100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>319500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>215100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>148500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>465700</v>
+        <v>624600</v>
       </c>
       <c r="E9" s="3">
-        <v>334300</v>
+        <v>895900</v>
       </c>
       <c r="F9" s="3">
+        <v>643800</v>
+      </c>
+      <c r="G9" s="3">
         <v>268800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>210300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>172700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>119200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>75800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>33000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>2337200</v>
+        <v>2910100</v>
       </c>
       <c r="E10" s="3">
-        <v>1754800</v>
+        <v>1907000</v>
       </c>
       <c r="F10" s="3">
+        <v>1445400</v>
+      </c>
+      <c r="G10" s="3">
         <v>1345400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>999800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>708300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>507500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>381300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>266600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>177100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>115500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1397200</v>
+        <v>1826400</v>
       </c>
       <c r="E12" s="3">
-        <v>959900</v>
+        <v>2688700</v>
       </c>
       <c r="F12" s="3">
+        <v>1892800</v>
+      </c>
+      <c r="G12" s="3">
         <v>763000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>579100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>415800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>310200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>208300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>140900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>57300</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,21 +945,24 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>7400</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -968,48 +987,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E15" s="3">
         <v>9700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>13000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>28700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>36100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>15300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2909300</v>
+        <v>3879900</v>
       </c>
       <c r="E17" s="3">
-        <v>1987500</v>
+        <v>2732800</v>
       </c>
       <c r="F17" s="3">
+        <v>1947700</v>
+      </c>
+      <c r="G17" s="3">
         <v>1600100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1273500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>927000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>682500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>462900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>319100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>193600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>135400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-106500</v>
+        <v>-345200</v>
       </c>
       <c r="E18" s="3">
-        <v>101600</v>
+        <v>70100</v>
       </c>
       <c r="F18" s="3">
+        <v>141400</v>
+      </c>
+      <c r="G18" s="3">
         <v>14100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-63400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-55800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,97 +1149,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-450900</v>
+        <v>64200</v>
       </c>
       <c r="E20" s="3">
-        <v>-729300</v>
+        <v>-492300</v>
       </c>
       <c r="F20" s="3">
+        <v>-556200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-360300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-542200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-12100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-463400</v>
+        <v>-220100</v>
       </c>
       <c r="E21" s="3">
-        <v>-534800</v>
+        <v>-370500</v>
       </c>
       <c r="F21" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-248800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-535300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>17000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>35500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23500</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>7300</v>
+        <v>30100</v>
       </c>
       <c r="E22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>48700</v>
+      </c>
+      <c r="F22" s="3">
+        <v>99600</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1224,8 +1263,8 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1233,87 +1272,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-564600</v>
+        <v>-311100</v>
       </c>
       <c r="E23" s="3">
-        <v>-634700</v>
+        <v>-470900</v>
       </c>
       <c r="F23" s="3">
+        <v>-514400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-346200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-605600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-58100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-52400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>22200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>11400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>49600</v>
+        <v>175600</v>
       </c>
       <c r="E24" s="3">
-        <v>61700</v>
+        <v>48600</v>
       </c>
       <c r="F24" s="3">
+        <v>64600</v>
+      </c>
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>32100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-15000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-614100</v>
+        <v>-486800</v>
       </c>
       <c r="E26" s="3">
-        <v>-696300</v>
+        <v>-519500</v>
       </c>
       <c r="F26" s="3">
+        <v>-579000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-350700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-637600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-66100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>10800</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-614100</v>
+        <v>-486800</v>
       </c>
       <c r="E27" s="3">
-        <v>-696300</v>
+        <v>-519500</v>
       </c>
       <c r="F27" s="3">
+        <v>-579000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-350700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-637600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-66100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>10800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1485,12 +1545,12 @@
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <v>-47300</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>450900</v>
+        <v>-64200</v>
       </c>
       <c r="E32" s="3">
-        <v>729300</v>
+        <v>492300</v>
       </c>
       <c r="F32" s="3">
+        <v>556200</v>
+      </c>
+      <c r="G32" s="3">
         <v>360300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>542200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>12100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-614100</v>
+        <v>-486800</v>
       </c>
       <c r="E33" s="3">
-        <v>-696300</v>
+        <v>-519500</v>
       </c>
       <c r="F33" s="3">
+        <v>-579000</v>
+      </c>
+      <c r="G33" s="3">
         <v>-350700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-637600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-113400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-37400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>10800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-614100</v>
+        <v>-486800</v>
       </c>
       <c r="E35" s="3">
-        <v>-696300</v>
+        <v>-519500</v>
       </c>
       <c r="F35" s="3">
+        <v>-579000</v>
+      </c>
+      <c r="G35" s="3">
         <v>-350700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-637600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-113400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-37400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>10800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41820</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41455</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,125 +1904,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2102600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2761500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>914000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1472900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1258500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2813600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>244400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>259700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>187100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>116800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E42" s="3">
         <v>146600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>313000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>676100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>445000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>323100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>305500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>483400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>45200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>477700</v>
+      </c>
+      <c r="E43" s="3">
         <v>630200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>188600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>118400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>97600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>117500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>39300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>21200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1974,108 +2069,117 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E45" s="3">
         <v>257900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>211900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>376500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>240900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>54000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2736400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1897000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1627500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2643800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2042100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1822000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>612500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>778500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>238600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>171200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>225500</v>
+      </c>
+      <c r="E47" s="3">
         <v>348900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>110400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>5200</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,87 +2195,96 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E48" s="3">
         <v>743800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>271500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>315300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>81500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>103300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>41200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>58800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16000</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>796300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1657200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>850300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>774800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>759900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>439100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>432700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20700</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E52" s="3">
         <v>141900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>85600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>155300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>280800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>197500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>133000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>88300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4106800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3326800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2945300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3894100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2977300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2421800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1283900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>991000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>397200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>262000</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,67 +2528,71 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>159300</v>
+      </c>
+      <c r="E57" s="3">
         <v>167600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>25000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>130200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4400</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E58" s="3">
         <v>40600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>391200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>923900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>853600</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2473,111 +2606,120 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1830800</v>
+      </c>
+      <c r="E59" s="3">
         <v>2979800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1878400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2064100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1451100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>433400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>314400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>226900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>177600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>122100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2027600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1594100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2310000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3018800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2329700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>444900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>326900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>236500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>188200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>962100</v>
+      </c>
+      <c r="E61" s="3">
         <v>999400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>214100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>229800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>819600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2593,48 +2735,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>462400</v>
+      </c>
+      <c r="E62" s="3">
         <v>563700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>126300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>70200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>82100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>470000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>62900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>22800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3452100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2999500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2650400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3318800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2411800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1514500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>389800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>259300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>207100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>136700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2510000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2073800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-296100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>51000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>429100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>414100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>263600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>654700</v>
+      </c>
+      <c r="E76" s="3">
         <v>327400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>294900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>575300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>565500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>907300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>894000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>731700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>190100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>125300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41820</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41455</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-614100</v>
+        <v>-486800</v>
       </c>
       <c r="E81" s="3">
-        <v>-696300</v>
+        <v>-519500</v>
       </c>
       <c r="F81" s="3">
+        <v>-579000</v>
+      </c>
+      <c r="G81" s="3">
         <v>-350700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-637600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-113400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-37400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>10800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>94000</v>
+        <v>60900</v>
       </c>
       <c r="E83" s="3">
-        <v>92800</v>
+        <v>51700</v>
       </c>
       <c r="F83" s="3">
+        <v>56000</v>
+      </c>
+      <c r="G83" s="3">
         <v>97400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>79400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>61500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>21900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12100</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>890100</v>
+        <v>868100</v>
       </c>
       <c r="E89" s="3">
-        <v>841300</v>
+        <v>821000</v>
       </c>
       <c r="F89" s="3">
+        <v>790000</v>
+      </c>
+      <c r="G89" s="3">
         <v>574200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>466300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>311500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>199400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>129500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>98200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>75300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>54300</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-44200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>46900</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
-        <v>256600</v>
+        <v>36500</v>
       </c>
       <c r="F94" s="3">
+        <v>259300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-318900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-604200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-51700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-224600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-489500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-46600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-12400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-461700</v>
+        <v>-148400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1654800</v>
+        <v>-399300</v>
       </c>
       <c r="F100" s="3">
+        <v>-1603400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-42600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-3200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>906800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>9400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>432800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>466000</v>
+        <v>716600</v>
       </c>
       <c r="E102" s="3">
-        <v>-551400</v>
+        <v>449000</v>
       </c>
       <c r="F102" s="3">
+        <v>-548800</v>
+      </c>
+      <c r="G102" s="3">
         <v>211500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-141900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1165900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>72600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>70300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
